--- a/Exc2/Проверочный_лист_для_аудита_ИБ.xlsx
+++ b/Exc2/Проверочный_лист_для_аудита_ИБ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>№</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">Используются ли механизмы контроля целостности системных файлов, и ведётся ли журналирование доступа к системным ресурсам?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Проводятся ли автоматизированные сканирования облачных инфраструктур на соответствие рекомендациям безопасности?</t>
@@ -351,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -382,13 +385,16 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,11 +917,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="100" workbookViewId="0">
-      <selection activeCell="E44" activeCellId="0" sqref="E44"/>
+    <sheetView topLeftCell="B44" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="34.140625"/>
     <col customWidth="1" min="5" max="5" width="35.7109375"/>
@@ -974,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -996,13 +1002,13 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1037,7 +1043,7 @@
       <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
@@ -1055,7 +1061,7 @@
       <c r="C11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="10"/>
@@ -1065,7 +1071,7 @@
       <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1093,7 +1099,7 @@
       <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1108,7 +1114,7 @@
       <c r="B15" s="8">
         <v>12</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -1123,7 +1129,7 @@
       <c r="B16" s="8">
         <v>13</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -1138,7 +1144,7 @@
       <c r="B17" s="8">
         <v>14</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
@@ -1240,7 +1246,7 @@
       <c r="B25" s="8">
         <v>7</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -1449,11 +1455,11 @@
       <c r="C41" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>6</v>
+      <c r="D41" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="60">
@@ -1462,7 +1468,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8" t="s">
@@ -1475,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8" t="s">
@@ -1488,13 +1494,11 @@
         <v>11</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D44" s="12"/>
       <c r="E44" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="24">
@@ -1503,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8" t="s">
@@ -1513,7 +1517,7 @@
     <row r="46" ht="12">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1525,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8" t="s">
@@ -1538,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="8" t="s">
@@ -1551,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="8" t="s">
@@ -1564,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="8" t="s">
@@ -1577,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="8" t="s">
@@ -1590,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="8" t="s">
@@ -1600,20 +1604,20 @@
     <row r="53" ht="12">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" ht="12">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="17"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" ht="72">
       <c r="A55" s="3"/>
@@ -1621,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="8" t="s">
@@ -1634,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="8" t="s">
@@ -1647,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="8" t="s">
@@ -1660,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="8" t="s">
@@ -1669,12 +1673,12 @@
     </row>
     <row r="59" ht="12">
       <c r="A59" s="3"/>
-      <c r="B59" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" ht="36">
       <c r="A60" s="3"/>
@@ -1682,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="8" t="s">
@@ -1695,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="8" t="s">
@@ -1708,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="8" t="s">
@@ -1914,12 +1918,12 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" ht="36.75" customHeight="1">
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" ht="75.75" customHeight="1">
       <c r="C20" s="8">
@@ -2062,12 +2066,12 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" ht="29.25" customHeight="1">
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" ht="69" customHeight="1">
       <c r="C35" s="8">
@@ -2154,7 +2158,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2164,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2174,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2184,25 +2188,25 @@
         <v>12</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
     </row>
     <row r="47" ht="24.75" customHeight="1">
-      <c r="C47" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="C47" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" ht="82.5" customHeight="1">
       <c r="C48" s="8">
         <v>1</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2212,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -2222,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -2232,7 +2236,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -2242,7 +2246,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -2252,34 +2256,34 @@
         <v>6</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
     <row r="54" ht="24" customHeight="1">
-      <c r="C54" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="C54" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" ht="24" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" ht="102.75" customHeight="1">
       <c r="C56" s="8">
         <v>1</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -2289,7 +2293,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -2299,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
@@ -2309,25 +2313,25 @@
         <v>4</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
     <row r="60" ht="25.5" customHeight="1">
-      <c r="C60" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
+      <c r="C60" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" ht="67.5" customHeight="1">
       <c r="C61" s="8">
         <v>1</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -2337,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -2347,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
